--- a/xlsx_storage/6.xlsx
+++ b/xlsx_storage/6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu\python\classMaker\xlsx_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubuntu\python\classMaker\xlsx_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691E7A1-8B75-4E89-9E28-E73FE615C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248F2D19-A31A-435F-AC4D-C4FDFCA74E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="795" windowWidth="14130" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
   <si>
     <t>학생 이름</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>소극적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 (A/B/C/D)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,15 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,16 +550,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -569,13 +576,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -589,13 +599,16 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -609,13 +622,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -629,13 +645,16 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -649,13 +668,16 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -669,13 +691,16 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -689,13 +714,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -709,13 +737,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -729,13 +760,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -749,13 +783,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -769,16 +806,19 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -792,13 +832,16 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -812,13 +855,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -832,13 +878,16 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -852,13 +901,16 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -872,13 +924,16 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -892,13 +947,16 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -912,13 +970,16 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -932,13 +993,16 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -952,13 +1016,16 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -972,13 +1039,16 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -992,13 +1062,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1012,14 +1085,18 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx_storage/6.xlsx
+++ b/xlsx_storage/6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu\python\classMaker\xlsx_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.42.110.249\4학년\0. 2024. 취합\반편성사전자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC3A5E-7D16-4C7B-88AC-B8E34E9FBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EBFCCE-4BD3-4877-A493-5FCB4E0E15B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>반</t>
   </si>
@@ -52,97 +52,118 @@
     <t>비고</t>
   </si>
   <si>
-    <t>예시601</t>
+    <t>강지연</t>
+  </si>
+  <si>
+    <t>여</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>매우산만함</t>
+  </si>
+  <si>
+    <t>구희율</t>
+  </si>
+  <si>
+    <t>생활지도</t>
+  </si>
+  <si>
+    <t>김민아</t>
+  </si>
+  <si>
+    <t>김아연</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>김주원</t>
   </si>
   <si>
     <t>남</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>예시602</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>예시603</t>
-  </si>
-  <si>
-    <t>예시604</t>
-  </si>
-  <si>
-    <t>예시605</t>
-  </si>
-  <si>
-    <t>예시606</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>예시607</t>
-  </si>
-  <si>
-    <t>예시608</t>
-  </si>
-  <si>
-    <t>예시609</t>
-  </si>
-  <si>
-    <t>예시610</t>
-  </si>
-  <si>
-    <t>예시611</t>
-  </si>
-  <si>
-    <t>여</t>
-  </si>
-  <si>
-    <t>소극적</t>
-  </si>
-  <si>
-    <t>예시612</t>
-  </si>
-  <si>
-    <t>예시613</t>
-  </si>
-  <si>
-    <t>예시614</t>
-  </si>
-  <si>
-    <t>예시615</t>
-  </si>
-  <si>
-    <t>예시616</t>
-  </si>
-  <si>
-    <t>예시617</t>
-  </si>
-  <si>
-    <t>예시618</t>
-  </si>
-  <si>
-    <t>예시619</t>
-  </si>
-  <si>
-    <t>예시620</t>
-  </si>
-  <si>
-    <t>예시621</t>
-  </si>
-  <si>
-    <t>예시622</t>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>잦은 결석</t>
+  </si>
+  <si>
+    <t>서은기</t>
+  </si>
+  <si>
+    <t>공감능력부족</t>
+  </si>
+  <si>
+    <t>성서원</t>
+  </si>
+  <si>
+    <t>무리</t>
+  </si>
+  <si>
+    <t>신아윤</t>
+  </si>
+  <si>
+    <t>안준호</t>
+  </si>
+  <si>
+    <t>이한빈</t>
+  </si>
+  <si>
+    <t>과민성대장중후군?</t>
+  </si>
+  <si>
+    <t>이효린</t>
+  </si>
+  <si>
+    <t>임시온</t>
+  </si>
+  <si>
+    <t>임지은</t>
+  </si>
+  <si>
+    <t>생활지도 어려움</t>
+  </si>
+  <si>
+    <t>장효준</t>
+  </si>
+  <si>
+    <t>정아인</t>
+  </si>
+  <si>
+    <t>최윤슬</t>
+  </si>
+  <si>
+    <t>한부모</t>
+  </si>
+  <si>
+    <t>최지유</t>
+  </si>
+  <si>
+    <t>한다원</t>
+  </si>
+  <si>
+    <t>한율아</t>
+  </si>
+  <si>
+    <t>황은혁</t>
   </si>
 </sst>
 </file>
@@ -517,7 +538,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -580,7 +601,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,25 +615,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -620,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -632,13 +659,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -649,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -658,16 +685,16 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -678,25 +705,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -707,25 +734,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -736,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -745,17 +772,20 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -765,25 +795,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -794,25 +827,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -823,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -832,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -852,28 +888,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -884,25 +917,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -913,25 +949,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -942,25 +978,25 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -971,28 +1007,31 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1000,28 +1039,31 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1029,28 +1071,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1058,28 +1100,31 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1087,28 +1132,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1116,28 +1161,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1145,28 +1190,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1174,29 +1219,30 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>